--- a/Jogos_do_Dia/2023-07-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="143">
   <si>
     <t>League</t>
   </si>
@@ -133,12 +133,12 @@
     <t>Estonia Meistriliiga</t>
   </si>
   <si>
+    <t>Norway Eliteserien</t>
+  </si>
+  <si>
     <t>Sweden Superettan</t>
   </si>
   <si>
-    <t>Norway Eliteserien</t>
-  </si>
-  <si>
     <t>Uruguay Segunda División</t>
   </si>
   <si>
@@ -148,21 +148,21 @@
     <t>Iceland Úrvalsdeild</t>
   </si>
   <si>
+    <t>Venezuela Primera División</t>
+  </si>
+  <si>
     <t>Peru Primera División</t>
   </si>
   <si>
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
+    <t>Argentina Primera División</t>
+  </si>
+  <si>
     <t>Chile Primera División</t>
   </si>
   <si>
-    <t>Argentina Primera División</t>
-  </si>
-  <si>
-    <t>Venezuela Primera División</t>
-  </si>
-  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
@@ -172,6 +172,18 @@
     <t>Bolivia LFPB</t>
   </si>
   <si>
+    <t>USA USL Championship</t>
+  </si>
+  <si>
+    <t>Chile Primera B</t>
+  </si>
+  <si>
+    <t>Mexico Liga MX</t>
+  </si>
+  <si>
+    <t>Canada Canadian Premier League</t>
+  </si>
+  <si>
     <t>07:00:00</t>
   </si>
   <si>
@@ -214,6 +226,15 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
     <t>Albirex Niigata</t>
   </si>
   <si>
@@ -223,69 +244,69 @@
     <t>Gangwon</t>
   </si>
   <si>
+    <t>Hangzhou</t>
+  </si>
+  <si>
+    <t>Henan Jianye</t>
+  </si>
+  <si>
+    <t>Tianjin Teda</t>
+  </si>
+  <si>
     <t>Meizhou Hakka</t>
   </si>
   <si>
-    <t>Tianjin Teda</t>
-  </si>
-  <si>
     <t>Qingdao Jonoon</t>
   </si>
   <si>
-    <t>Hangzhou</t>
-  </si>
-  <si>
-    <t>Henan Jianye</t>
-  </si>
-  <si>
     <t>Paide</t>
   </si>
   <si>
+    <t>HamKam</t>
+  </si>
+  <si>
+    <t>Landskrona</t>
+  </si>
+  <si>
     <t>Örebro</t>
   </si>
   <si>
-    <t>HamKam</t>
-  </si>
-  <si>
-    <t>Landskrona</t>
-  </si>
-  <si>
     <t>Juventud</t>
   </si>
   <si>
+    <t>Drogheda United</t>
+  </si>
+  <si>
+    <t>Derry City</t>
+  </si>
+  <si>
+    <t>St Patrick's Athl.</t>
+  </si>
+  <si>
     <t>UCD</t>
   </si>
   <si>
-    <t>St Patrick's Athl.</t>
-  </si>
-  <si>
     <t>Bohemians</t>
   </si>
   <si>
-    <t>Derry City</t>
-  </si>
-  <si>
-    <t>Drogheda United</t>
-  </si>
-  <si>
     <t>Breidablik</t>
   </si>
   <si>
+    <t>Carabobo</t>
+  </si>
+  <si>
     <t>Melgar</t>
   </si>
   <si>
     <t>Resistencia</t>
   </si>
   <si>
+    <t>Gimnasia La Plata</t>
+  </si>
+  <si>
     <t>Audax Italiano</t>
   </si>
   <si>
-    <t>Gimnasia La Plata</t>
-  </si>
-  <si>
-    <t>Carabobo</t>
-  </si>
-  <si>
     <t>Novorizontino</t>
   </si>
   <si>
@@ -298,6 +319,27 @@
     <t>Municipal Vinto</t>
   </si>
   <si>
+    <t>Ceará</t>
+  </si>
+  <si>
+    <t>Central Córdoba SdE</t>
+  </si>
+  <si>
+    <t>Memphis 901</t>
+  </si>
+  <si>
+    <t>Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Academia Cantolao</t>
+  </si>
+  <si>
+    <t>Puebla</t>
+  </si>
+  <si>
+    <t>Vancouver FC</t>
+  </si>
+  <si>
     <t>Vissel Kobe</t>
   </si>
   <si>
@@ -307,69 +349,69 @@
     <t>Gwangju</t>
   </si>
   <si>
+    <t>Shanghai Shenhua</t>
+  </si>
+  <si>
+    <t>Shandong Luneng</t>
+  </si>
+  <si>
+    <t>Nantong Zhiyun</t>
+  </si>
+  <si>
     <t>Chengdu Better City FC</t>
   </si>
   <si>
-    <t>Nantong Zhiyun</t>
-  </si>
-  <si>
     <t>Shijiazhuang Ever Bright</t>
   </si>
   <si>
-    <t>Shanghai Shenhua</t>
-  </si>
-  <si>
-    <t>Shandong Luneng</t>
-  </si>
-  <si>
     <t>Tallinna FC Flora</t>
   </si>
   <si>
+    <t>Aalesund</t>
+  </si>
+  <si>
+    <t>Jönköpings Södra</t>
+  </si>
+  <si>
     <t>Öster</t>
   </si>
   <si>
-    <t>Aalesund</t>
-  </si>
-  <si>
-    <t>Jönköpings Södra</t>
-  </si>
-  <si>
     <t>Progreso</t>
   </si>
   <si>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
+    <t>Cork City</t>
+  </si>
+  <si>
     <t>Shelbourne</t>
   </si>
   <si>
-    <t>Cork City</t>
-  </si>
-  <si>
     <t>Dundalk</t>
   </si>
   <si>
-    <t>Sligo Rovers</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers</t>
-  </si>
-  <si>
     <t>Fylkir</t>
   </si>
   <si>
+    <t>UCV</t>
+  </si>
+  <si>
     <t>Atlético Grau</t>
   </si>
   <si>
     <t>General Caballero JLM</t>
   </si>
   <si>
+    <t>Independiente</t>
+  </si>
+  <si>
     <t>Palestino</t>
   </si>
   <si>
-    <t>Independiente</t>
-  </si>
-  <si>
-    <t>UCV</t>
-  </si>
-  <si>
     <t>Atlético GO</t>
   </si>
   <si>
@@ -380,6 +422,27 @@
   </si>
   <si>
     <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Botafogo SP</t>
+  </si>
+  <si>
+    <t>Newell's Old Boys</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>San Marcos</t>
+  </si>
+  <si>
+    <t>Universitario</t>
+  </si>
+  <si>
+    <t>Santos Laguna</t>
+  </si>
+  <si>
+    <t>HFX Wanderers FC</t>
   </si>
 </sst>
 </file>
@@ -741,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI29"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -862,25 +925,25 @@
         <v>45114</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G2">
-        <v>3.57</v>
+        <v>4.78</v>
       </c>
       <c r="H2">
-        <v>3.41</v>
+        <v>2.18</v>
       </c>
       <c r="I2">
-        <v>1.9</v>
+        <v>2.27</v>
       </c>
       <c r="J2">
         <v>1.04</v>
@@ -969,25 +1032,25 @@
         <v>45114</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G3">
-        <v>2.12</v>
+        <v>2.88</v>
       </c>
       <c r="H3">
-        <v>3.11</v>
+        <v>2.08</v>
       </c>
       <c r="I3">
-        <v>2.97</v>
+        <v>3.55</v>
       </c>
       <c r="J3">
         <v>1.04</v>
@@ -1002,10 +1065,10 @@
         <v>3.5</v>
       </c>
       <c r="N3">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O3">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <v>1.36</v>
@@ -1076,25 +1139,25 @@
         <v>45114</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="G4">
-        <v>2.76</v>
+        <v>3.89</v>
       </c>
       <c r="H4">
-        <v>3.35</v>
+        <v>1.96</v>
       </c>
       <c r="I4">
-        <v>2.38</v>
+        <v>2.93</v>
       </c>
       <c r="J4">
         <v>1.07</v>
@@ -1183,103 +1246,103 @@
         <v>45114</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G5">
-        <v>4.75</v>
+        <v>1.78</v>
       </c>
       <c r="H5">
-        <v>3.65</v>
+        <v>4.19</v>
       </c>
       <c r="I5">
+        <v>3.26</v>
+      </c>
+      <c r="J5">
+        <v>1.03</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>1.35</v>
+      </c>
+      <c r="M5">
+        <v>3.1</v>
+      </c>
+      <c r="N5">
+        <v>2.05</v>
+      </c>
+      <c r="O5">
+        <v>1.71</v>
+      </c>
+      <c r="P5">
+        <v>1.44</v>
+      </c>
+      <c r="Q5">
+        <v>2.63</v>
+      </c>
+      <c r="R5">
+        <v>1.8</v>
+      </c>
+      <c r="S5">
+        <v>1.95</v>
+      </c>
+      <c r="T5">
+        <v>1.32</v>
+      </c>
+      <c r="U5">
+        <v>1.35</v>
+      </c>
+      <c r="V5">
+        <v>1.63</v>
+      </c>
+      <c r="W5">
         <v>1.5</v>
       </c>
-      <c r="J5">
-        <v>1.01</v>
-      </c>
-      <c r="K5">
-        <v>9.5</v>
-      </c>
-      <c r="L5">
-        <v>1.28</v>
-      </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
-      <c r="N5">
-        <v>1.84</v>
-      </c>
-      <c r="O5">
-        <v>1.86</v>
-      </c>
-      <c r="P5">
-        <v>1.36</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>1.75</v>
-      </c>
-      <c r="T5">
-        <v>2.45</v>
-      </c>
-      <c r="U5">
-        <v>1.18</v>
-      </c>
-      <c r="V5">
-        <v>1.08</v>
-      </c>
-      <c r="W5">
-        <v>0.67</v>
-      </c>
       <c r="X5">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="Y5">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="Z5">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AA5">
-        <v>2.59</v>
+        <v>2.78</v>
       </c>
       <c r="AB5">
-        <v>3.75</v>
+        <v>1.83</v>
       </c>
       <c r="AC5">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD5">
-        <v>1.36</v>
+        <v>2.3</v>
       </c>
       <c r="AE5">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AF5">
         <v>1.63</v>
       </c>
       <c r="AG5">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AH5">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AI5">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1290,103 +1353,103 @@
         <v>45114</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G6">
-        <v>1.57</v>
+        <v>5.12</v>
       </c>
       <c r="H6">
-        <v>3.4</v>
+        <v>3.73</v>
       </c>
       <c r="I6">
-        <v>4.55</v>
+        <v>1.6</v>
       </c>
       <c r="J6">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K6">
-        <v>7.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L6">
+        <v>1.28</v>
+      </c>
+      <c r="M6">
+        <v>3.6</v>
+      </c>
+      <c r="N6">
+        <v>1.88</v>
+      </c>
+      <c r="O6">
+        <v>1.84</v>
+      </c>
+      <c r="P6">
+        <v>1.36</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
+        <v>1.8</v>
+      </c>
+      <c r="T6">
+        <v>2.35</v>
+      </c>
+      <c r="U6">
+        <v>1.18</v>
+      </c>
+      <c r="V6">
+        <v>1.1</v>
+      </c>
+      <c r="W6">
+        <v>1.43</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1.14</v>
+      </c>
+      <c r="Z6">
+        <v>1.78</v>
+      </c>
+      <c r="AA6">
+        <v>2.92</v>
+      </c>
+      <c r="AB6">
+        <v>3.6</v>
+      </c>
+      <c r="AC6">
+        <v>8.5</v>
+      </c>
+      <c r="AD6">
         <v>1.4</v>
       </c>
-      <c r="M6">
-        <v>2.88</v>
-      </c>
-      <c r="N6">
-        <v>2.1</v>
-      </c>
-      <c r="O6">
-        <v>1.61</v>
-      </c>
-      <c r="P6">
-        <v>1.44</v>
-      </c>
-      <c r="Q6">
-        <v>2.63</v>
-      </c>
-      <c r="R6">
-        <v>2.05</v>
-      </c>
-      <c r="S6">
-        <v>1.7</v>
-      </c>
-      <c r="T6">
-        <v>1.12</v>
-      </c>
-      <c r="U6">
-        <v>1.2</v>
-      </c>
-      <c r="V6">
-        <v>2.15</v>
-      </c>
-      <c r="W6">
-        <v>1.86</v>
-      </c>
-      <c r="X6">
-        <v>0.29</v>
-      </c>
-      <c r="Y6">
-        <v>1.25</v>
-      </c>
-      <c r="Z6">
-        <v>1.09</v>
-      </c>
-      <c r="AA6">
-        <v>2.34</v>
-      </c>
-      <c r="AB6">
-        <v>1.53</v>
-      </c>
-      <c r="AC6">
-        <v>8</v>
-      </c>
-      <c r="AD6">
-        <v>3</v>
-      </c>
       <c r="AE6">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AF6">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AG6">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AH6">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AI6">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1397,103 +1460,103 @@
         <v>45114</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="G7">
-        <v>2.24</v>
+        <v>1.35</v>
       </c>
       <c r="H7">
-        <v>3.36</v>
+        <v>5.03</v>
       </c>
       <c r="I7">
-        <v>3.2</v>
+        <v>5.78</v>
       </c>
       <c r="J7">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K7">
-        <v>8.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="L7">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="M7">
-        <v>3.39</v>
+        <v>2.88</v>
       </c>
       <c r="N7">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="O7">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="P7">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q7">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R7">
+        <v>2.05</v>
+      </c>
+      <c r="S7">
         <v>1.7</v>
       </c>
-      <c r="S7">
-        <v>2.05</v>
-      </c>
       <c r="T7">
-        <v>1.4</v>
+        <v>1.12</v>
       </c>
       <c r="U7">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="V7">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="W7">
-        <v>1.17</v>
+        <v>1.86</v>
       </c>
       <c r="X7">
-        <v>1.33</v>
+        <v>0.29</v>
       </c>
       <c r="Y7">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="Z7">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="AA7">
-        <v>2.66</v>
+        <v>2.34</v>
       </c>
       <c r="AB7">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="AC7">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD7">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="AE7">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AF7">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AG7">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AH7">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AI7">
-        <v>4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1504,103 +1567,103 @@
         <v>45114</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="G8">
-        <v>2.31</v>
+        <v>4.59</v>
       </c>
       <c r="H8">
-        <v>3.15</v>
+        <v>2.99</v>
       </c>
       <c r="I8">
-        <v>2.51</v>
+        <v>1.8</v>
       </c>
       <c r="J8">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="L8">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="M8">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="O8">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="P8">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q8">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T8">
-        <v>1.32</v>
+        <v>2.45</v>
       </c>
       <c r="U8">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="V8">
-        <v>1.63</v>
+        <v>1.08</v>
       </c>
       <c r="W8">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="X8">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="Y8">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="Z8">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AA8">
-        <v>2.78</v>
+        <v>2.59</v>
       </c>
       <c r="AB8">
-        <v>1.83</v>
+        <v>3.75</v>
       </c>
       <c r="AC8">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AD8">
-        <v>2.3</v>
+        <v>1.36</v>
       </c>
       <c r="AE8">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AF8">
         <v>1.63</v>
       </c>
       <c r="AG8">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AH8">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AI8">
-        <v>4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1611,103 +1674,103 @@
         <v>45114</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G9">
-        <v>5.12</v>
+        <v>2.24</v>
       </c>
       <c r="H9">
-        <v>3.73</v>
+        <v>3.36</v>
       </c>
       <c r="I9">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="J9">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K9">
-        <v>9.699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L9">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M9">
-        <v>3.6</v>
+        <v>3.39</v>
       </c>
       <c r="N9">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="O9">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="P9">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R9">
+        <v>1.7</v>
+      </c>
+      <c r="S9">
+        <v>2.05</v>
+      </c>
+      <c r="T9">
+        <v>1.4</v>
+      </c>
+      <c r="U9">
+        <v>1.35</v>
+      </c>
+      <c r="V9">
+        <v>1.55</v>
+      </c>
+      <c r="W9">
+        <v>1.17</v>
+      </c>
+      <c r="X9">
+        <v>1.33</v>
+      </c>
+      <c r="Y9">
+        <v>1.51</v>
+      </c>
+      <c r="Z9">
+        <v>1.15</v>
+      </c>
+      <c r="AA9">
+        <v>2.66</v>
+      </c>
+      <c r="AB9">
         <v>1.95</v>
       </c>
-      <c r="S9">
-        <v>1.8</v>
-      </c>
-      <c r="T9">
-        <v>2.35</v>
-      </c>
-      <c r="U9">
-        <v>1.18</v>
-      </c>
-      <c r="V9">
-        <v>1.1</v>
-      </c>
-      <c r="W9">
-        <v>1.43</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>1.14</v>
-      </c>
-      <c r="Z9">
-        <v>1.78</v>
-      </c>
-      <c r="AA9">
-        <v>2.92</v>
-      </c>
-      <c r="AB9">
-        <v>3.6</v>
-      </c>
       <c r="AC9">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD9">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="AE9">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AF9">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="AG9">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AH9">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AI9">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1718,25 +1781,25 @@
         <v>45114</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="G10">
-        <v>4.95</v>
+        <v>4.9</v>
       </c>
       <c r="H10">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I10">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="J10">
         <v>1.01</v>
@@ -1751,10 +1814,10 @@
         <v>3.65</v>
       </c>
       <c r="N10">
-        <v>1.68</v>
+        <v>2.05</v>
       </c>
       <c r="O10">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="P10">
         <v>1.34</v>
@@ -1825,103 +1888,103 @@
         <v>45114</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G11">
-        <v>2.88</v>
+        <v>2.09</v>
       </c>
       <c r="H11">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I11">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="J11">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="K11">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="L11">
+        <v>1.25</v>
+      </c>
+      <c r="M11">
+        <v>3.4</v>
+      </c>
+      <c r="N11">
+        <v>2.13</v>
+      </c>
+      <c r="O11">
+        <v>1.71</v>
+      </c>
+      <c r="P11">
+        <v>1.44</v>
+      </c>
+      <c r="Q11">
+        <v>2.63</v>
+      </c>
+      <c r="R11">
+        <v>1.8</v>
+      </c>
+      <c r="S11">
+        <v>1.95</v>
+      </c>
+      <c r="T11">
+        <v>1.29</v>
+      </c>
+      <c r="U11">
         <v>1.28</v>
       </c>
-      <c r="M11">
-        <v>3.75</v>
-      </c>
-      <c r="N11">
-        <v>1.81</v>
-      </c>
-      <c r="O11">
-        <v>1.95</v>
-      </c>
-      <c r="P11">
-        <v>1.4</v>
-      </c>
-      <c r="Q11">
-        <v>2.75</v>
-      </c>
-      <c r="R11">
+      <c r="V11">
         <v>1.75</v>
       </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="T11">
+      <c r="W11">
+        <v>1.17</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>1.51</v>
+      </c>
+      <c r="Z11">
+        <v>1.1</v>
+      </c>
+      <c r="AA11">
+        <v>2.61</v>
+      </c>
+      <c r="AB11">
         <v>1.67</v>
-      </c>
-      <c r="U11">
-        <v>1.33</v>
-      </c>
-      <c r="V11">
-        <v>1.32</v>
-      </c>
-      <c r="W11">
-        <v>1.5</v>
-      </c>
-      <c r="X11">
-        <v>1.67</v>
-      </c>
-      <c r="Y11">
-        <v>1.61</v>
-      </c>
-      <c r="Z11">
-        <v>1.76</v>
-      </c>
-      <c r="AA11">
-        <v>3.37</v>
-      </c>
-      <c r="AB11">
-        <v>2.41</v>
       </c>
       <c r="AC11">
         <v>8.5</v>
       </c>
       <c r="AD11">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AE11">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AF11">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AG11">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="AH11">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AI11">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1932,210 +1995,210 @@
         <v>45114</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="G12">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="H12">
-        <v>3.64</v>
+        <v>3.55</v>
       </c>
       <c r="I12">
-        <v>4.04</v>
+        <v>3.35</v>
       </c>
       <c r="J12">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K12">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="L12">
+        <v>1.21</v>
+      </c>
+      <c r="M12">
+        <v>4.2</v>
+      </c>
+      <c r="N12">
+        <v>1.77</v>
+      </c>
+      <c r="O12">
+        <v>2.05</v>
+      </c>
+      <c r="P12">
+        <v>1.33</v>
+      </c>
+      <c r="Q12">
+        <v>3.25</v>
+      </c>
+      <c r="R12">
+        <v>1.62</v>
+      </c>
+      <c r="S12">
+        <v>2.2</v>
+      </c>
+      <c r="T12">
+        <v>1.3</v>
+      </c>
+      <c r="U12">
         <v>1.25</v>
       </c>
-      <c r="M12">
-        <v>3.4</v>
-      </c>
-      <c r="N12">
-        <v>1.97</v>
-      </c>
-      <c r="O12">
-        <v>1.88</v>
-      </c>
-      <c r="P12">
-        <v>1.44</v>
-      </c>
-      <c r="Q12">
-        <v>2.63</v>
-      </c>
-      <c r="R12">
-        <v>1.8</v>
-      </c>
-      <c r="S12">
-        <v>1.95</v>
-      </c>
-      <c r="T12">
+      <c r="V12">
+        <v>1.83</v>
+      </c>
+      <c r="W12">
+        <v>2.17</v>
+      </c>
+      <c r="X12">
+        <v>1.4</v>
+      </c>
+      <c r="Y12">
+        <v>1.77</v>
+      </c>
+      <c r="Z12">
+        <v>1.2</v>
+      </c>
+      <c r="AA12">
+        <v>2.97</v>
+      </c>
+      <c r="AB12">
+        <v>1.51</v>
+      </c>
+      <c r="AC12">
+        <v>9</v>
+      </c>
+      <c r="AD12">
+        <v>3.06</v>
+      </c>
+      <c r="AE12">
+        <v>1.14</v>
+      </c>
+      <c r="AF12">
         <v>1.29</v>
       </c>
-      <c r="U12">
-        <v>1.28</v>
-      </c>
-      <c r="V12">
-        <v>1.75</v>
-      </c>
-      <c r="W12">
-        <v>1.17</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>1.51</v>
-      </c>
-      <c r="Z12">
-        <v>1.1</v>
-      </c>
-      <c r="AA12">
-        <v>2.61</v>
-      </c>
-      <c r="AB12">
-        <v>1.67</v>
-      </c>
-      <c r="AC12">
-        <v>8.5</v>
-      </c>
-      <c r="AD12">
-        <v>2.5</v>
-      </c>
-      <c r="AE12">
-        <v>1.18</v>
-      </c>
-      <c r="AF12">
-        <v>1.35</v>
-      </c>
       <c r="AG12">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AH12">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="AI12">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2">
         <v>45114</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G13">
-        <v>1.98</v>
+        <v>2.9</v>
       </c>
       <c r="H13">
-        <v>3.68</v>
+        <v>3.3</v>
       </c>
       <c r="I13">
-        <v>3.65</v>
+        <v>2.32</v>
       </c>
       <c r="J13">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K13">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L13">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>1.88</v>
+      </c>
+      <c r="P13">
+        <v>1.4</v>
+      </c>
+      <c r="Q13">
+        <v>2.75</v>
+      </c>
+      <c r="R13">
         <v>1.75</v>
       </c>
-      <c r="O13">
-        <v>2.08</v>
-      </c>
-      <c r="P13">
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>1.67</v>
+      </c>
+      <c r="U13">
         <v>1.33</v>
       </c>
-      <c r="Q13">
-        <v>3.25</v>
-      </c>
-      <c r="R13">
-        <v>1.62</v>
-      </c>
-      <c r="S13">
-        <v>2.2</v>
-      </c>
-      <c r="T13">
-        <v>1.3</v>
-      </c>
-      <c r="U13">
-        <v>1.25</v>
-      </c>
       <c r="V13">
-        <v>1.83</v>
+        <v>1.32</v>
       </c>
       <c r="W13">
-        <v>2.17</v>
+        <v>1.5</v>
       </c>
       <c r="X13">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="Y13">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="Z13">
-        <v>1.2</v>
+        <v>1.76</v>
       </c>
       <c r="AA13">
-        <v>2.97</v>
+        <v>3.37</v>
       </c>
       <c r="AB13">
-        <v>1.51</v>
+        <v>2.41</v>
       </c>
       <c r="AC13">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD13">
-        <v>3.06</v>
+        <v>1.75</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF13">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AG13">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AH13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AI13">
-        <v>2.43</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2146,64 +2209,64 @@
         <v>45114</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W14">
         <v>2.13</v>
@@ -2253,103 +2316,103 @@
         <v>45114</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G15">
-        <v>6.6</v>
+        <v>5.98</v>
       </c>
       <c r="H15">
-        <v>4.15</v>
+        <v>2.48</v>
       </c>
       <c r="I15">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="J15">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="L15">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="M15">
-        <v>3.3</v>
+        <v>3.64</v>
       </c>
       <c r="N15">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>1.33</v>
+      </c>
+      <c r="Q15">
+        <v>3.25</v>
+      </c>
+      <c r="R15">
         <v>1.75</v>
       </c>
-      <c r="P15">
-        <v>1.4</v>
-      </c>
-      <c r="Q15">
-        <v>2.75</v>
-      </c>
-      <c r="R15">
-        <v>2.2</v>
-      </c>
       <c r="S15">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="U15">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="V15">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="W15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>1.1</v>
+        <v>1.83</v>
       </c>
       <c r="Y15">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="Z15">
-        <v>1.13</v>
+        <v>1.59</v>
       </c>
       <c r="AA15">
-        <v>2.14</v>
+        <v>3.35</v>
       </c>
       <c r="AB15">
-        <v>3.59</v>
+        <v>2.78</v>
       </c>
       <c r="AC15">
         <v>8.5</v>
       </c>
       <c r="AD15">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG15">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="AH15">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="AI15">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2360,94 +2423,94 @@
         <v>45114</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D16">
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="G16">
-        <v>1.47</v>
+        <v>2.19</v>
       </c>
       <c r="H16">
-        <v>4.35</v>
+        <v>2.16</v>
       </c>
       <c r="I16">
-        <v>5.9</v>
+        <v>5.29</v>
       </c>
       <c r="J16">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="L16">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N16">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="O16">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="P16">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="Q16">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="R16">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S16">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="T16">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="U16">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V16">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="W16">
-        <v>2.08</v>
+        <v>1.58</v>
       </c>
       <c r="X16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="Z16">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="AA16">
-        <v>2.72</v>
+        <v>3.26</v>
       </c>
       <c r="AB16">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AC16">
         <v>9.5</v>
       </c>
       <c r="AD16">
-        <v>4.13</v>
+        <v>4.07</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG16">
         <v>1.91</v>
@@ -2456,7 +2519,7 @@
         <v>2.55</v>
       </c>
       <c r="AI16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2467,103 +2530,103 @@
         <v>45114</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D17">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="G17">
-        <v>2.25</v>
+        <v>1.99</v>
       </c>
       <c r="H17">
-        <v>3.35</v>
+        <v>2.34</v>
       </c>
       <c r="I17">
-        <v>2.95</v>
+        <v>5.62</v>
       </c>
       <c r="J17">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L17">
+        <v>1.22</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>1.75</v>
+      </c>
+      <c r="O17">
+        <v>1.95</v>
+      </c>
+      <c r="P17">
         <v>1.33</v>
       </c>
-      <c r="M17">
-        <v>3.2</v>
-      </c>
-      <c r="N17">
-        <v>2.09</v>
-      </c>
-      <c r="O17">
-        <v>1.77</v>
-      </c>
-      <c r="P17">
-        <v>1.4</v>
-      </c>
       <c r="Q17">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T17">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="U17">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V17">
-        <v>1.63</v>
+        <v>2.4</v>
       </c>
       <c r="W17">
-        <v>1.7</v>
+        <v>2.08</v>
       </c>
       <c r="X17">
-        <v>1.42</v>
+        <v>0.5</v>
       </c>
       <c r="Y17">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="Z17">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="AA17">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="AB17">
-        <v>1.82</v>
+        <v>1.31</v>
       </c>
       <c r="AC17">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD17">
-        <v>2.33</v>
+        <v>4.13</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG17">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AH17">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="AI17">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2574,49 +2637,49 @@
         <v>45114</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D18">
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G18">
-        <v>1.62</v>
+        <v>7.5</v>
       </c>
       <c r="H18">
-        <v>3.7</v>
+        <v>2.55</v>
       </c>
       <c r="I18">
-        <v>5.2</v>
+        <v>1.71</v>
       </c>
       <c r="J18">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K18">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L18">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="M18">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N18">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="O18">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="P18">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q18">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R18">
         <v>2.2</v>
@@ -2625,52 +2688,52 @@
         <v>1.62</v>
       </c>
       <c r="T18">
+        <v>2.65</v>
+      </c>
+      <c r="U18">
+        <v>1.22</v>
+      </c>
+      <c r="V18">
         <v>1.09</v>
       </c>
-      <c r="U18">
-        <v>1.2</v>
-      </c>
-      <c r="V18">
-        <v>2.2</v>
-      </c>
       <c r="W18">
-        <v>1.58</v>
+        <v>0.8</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="Y18">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="Z18">
-        <v>1.45</v>
+        <v>1.13</v>
       </c>
       <c r="AA18">
-        <v>3.26</v>
+        <v>2.14</v>
       </c>
       <c r="AB18">
-        <v>1.34</v>
+        <v>3.59</v>
       </c>
       <c r="AC18">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD18">
-        <v>4.07</v>
+        <v>1.41</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AG18">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="AH18">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="AI18">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2681,103 +2744,103 @@
         <v>45114</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D19">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G19">
-        <v>4.8</v>
+        <v>3.11</v>
       </c>
       <c r="H19">
-        <v>4.15</v>
+        <v>2.09</v>
       </c>
       <c r="I19">
-        <v>1.59</v>
+        <v>3.25</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="K19">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="L19">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="M19">
-        <v>3.64</v>
+        <v>3.2</v>
       </c>
       <c r="N19">
+        <v>2.08</v>
+      </c>
+      <c r="O19">
+        <v>1.8</v>
+      </c>
+      <c r="P19">
+        <v>1.4</v>
+      </c>
+      <c r="Q19">
+        <v>2.75</v>
+      </c>
+      <c r="R19">
+        <v>1.8</v>
+      </c>
+      <c r="S19">
+        <v>1.95</v>
+      </c>
+      <c r="T19">
+        <v>1.3</v>
+      </c>
+      <c r="U19">
+        <v>1.25</v>
+      </c>
+      <c r="V19">
+        <v>1.63</v>
+      </c>
+      <c r="W19">
         <v>1.7</v>
       </c>
-      <c r="O19">
+      <c r="X19">
+        <v>1.42</v>
+      </c>
+      <c r="Y19">
+        <v>1.64</v>
+      </c>
+      <c r="Z19">
+        <v>1.24</v>
+      </c>
+      <c r="AA19">
+        <v>2.88</v>
+      </c>
+      <c r="AB19">
+        <v>1.82</v>
+      </c>
+      <c r="AC19">
+        <v>8</v>
+      </c>
+      <c r="AD19">
+        <v>2.33</v>
+      </c>
+      <c r="AE19">
+        <v>1.29</v>
+      </c>
+      <c r="AF19">
+        <v>1.56</v>
+      </c>
+      <c r="AG19">
         <v>2</v>
       </c>
-      <c r="P19">
-        <v>1.33</v>
-      </c>
-      <c r="Q19">
-        <v>3.25</v>
-      </c>
-      <c r="R19">
-        <v>1.75</v>
-      </c>
-      <c r="S19">
-        <v>2</v>
-      </c>
-      <c r="T19">
-        <v>2.3</v>
-      </c>
-      <c r="U19">
-        <v>1.18</v>
-      </c>
-      <c r="V19">
-        <v>1.14</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1.83</v>
-      </c>
-      <c r="Y19">
-        <v>1.76</v>
-      </c>
-      <c r="Z19">
-        <v>1.59</v>
-      </c>
-      <c r="AA19">
-        <v>3.35</v>
-      </c>
-      <c r="AB19">
-        <v>2.78</v>
-      </c>
-      <c r="AC19">
-        <v>8.5</v>
-      </c>
-      <c r="AD19">
-        <v>1.59</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>1.91</v>
-      </c>
       <c r="AH19">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="AI19">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2788,25 +2851,25 @@
         <v>45114</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G20">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="H20">
-        <v>5.3</v>
+        <v>3.02</v>
       </c>
       <c r="I20">
-        <v>6.6</v>
+        <v>6.47</v>
       </c>
       <c r="J20">
         <v>1.01</v>
@@ -2821,7 +2884,7 @@
         <v>5.75</v>
       </c>
       <c r="N20">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="O20">
         <v>2.75</v>
@@ -2875,16 +2938,16 @@
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2895,64 +2958,64 @@
         <v>45114</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G21">
+        <v>1.58</v>
+      </c>
+      <c r="H21">
+        <v>3.55</v>
+      </c>
+      <c r="I21">
+        <v>6.2</v>
+      </c>
+      <c r="J21">
+        <v>1.07</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21">
         <v>1.38</v>
       </c>
-      <c r="H21">
-        <v>3.77</v>
-      </c>
-      <c r="I21">
-        <v>5.83</v>
-      </c>
-      <c r="J21">
-        <v>1.03</v>
-      </c>
-      <c r="K21">
-        <v>14</v>
-      </c>
-      <c r="L21">
-        <v>1.23</v>
-      </c>
       <c r="M21">
-        <v>3.72</v>
+        <v>2.83</v>
       </c>
       <c r="N21">
-        <v>1.68</v>
+        <v>2.3</v>
       </c>
       <c r="O21">
-        <v>2.07</v>
+        <v>1.55</v>
       </c>
       <c r="P21">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="T21">
         <v>1.13</v>
       </c>
       <c r="U21">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="V21">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="W21">
         <v>2</v>
@@ -2961,13 +3024,13 @@
         <v>0.5</v>
       </c>
       <c r="Y21">
-        <v>1.61</v>
+        <v>1.84</v>
       </c>
       <c r="Z21">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AA21">
-        <v>2.89</v>
+        <v>3.09</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -3002,103 +3065,103 @@
         <v>45114</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="G22">
-        <v>2.54</v>
+        <v>1.47</v>
       </c>
       <c r="H22">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="I22">
-        <v>2.32</v>
+        <v>7</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="N22">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="O22">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="W22">
-        <v>0.82</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y22">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="Z22">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AA22">
-        <v>2.77</v>
+        <v>2.89</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3109,103 +3172,103 @@
         <v>45114</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G23">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="H23">
         <v>3.1</v>
       </c>
       <c r="I23">
-        <v>2.93</v>
+        <v>2.6</v>
       </c>
       <c r="J23">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="O23">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="P23">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>1.57</v>
+        <v>0.82</v>
       </c>
       <c r="X23">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="Y23">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="Z23">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="AA23">
-        <v>3.53</v>
+        <v>2.77</v>
       </c>
       <c r="AB23">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AI23">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3216,16 +3279,16 @@
         <v>45114</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G24">
         <v>2.6</v>
@@ -3323,103 +3386,103 @@
         <v>45114</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W25">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="X25">
-        <v>0.5</v>
+        <v>1.14</v>
       </c>
       <c r="Y25">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Z25">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AA25">
-        <v>3.09</v>
+        <v>3.53</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3430,25 +3493,25 @@
         <v>45114</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G26">
-        <v>1.82</v>
+        <v>3.4</v>
       </c>
       <c r="H26">
-        <v>3.15</v>
+        <v>1.52</v>
       </c>
       <c r="I26">
-        <v>3.78</v>
+        <v>6.35</v>
       </c>
       <c r="J26">
         <v>1.08</v>
@@ -3463,10 +3526,10 @@
         <v>2.65</v>
       </c>
       <c r="N26">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O26">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P26">
         <v>1.5</v>
@@ -3505,13 +3568,13 @@
         <v>3.29</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -3520,13 +3583,13 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3537,25 +3600,25 @@
         <v>45114</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="G27">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="H27">
-        <v>3.21</v>
+        <v>3.3</v>
       </c>
       <c r="I27">
-        <v>3.08</v>
+        <v>2.75</v>
       </c>
       <c r="J27">
         <v>1.06</v>
@@ -3570,10 +3633,10 @@
         <v>3.28</v>
       </c>
       <c r="N27">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="O27">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="P27">
         <v>1.44</v>
@@ -3612,48 +3675,48 @@
         <v>2.75</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2">
         <v>45114</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G28">
         <v>1.5</v>
@@ -3751,64 +3814,64 @@
         <v>45114</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D29">
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="W29">
         <v>1.25</v>
@@ -3826,13 +3889,13 @@
         <v>3.34</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -3847,6 +3910,755 @@
         <v>0</v>
       </c>
       <c r="AI29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30">
+        <v>1.7</v>
+      </c>
+      <c r="H30">
+        <v>3.45</v>
+      </c>
+      <c r="I30">
+        <v>4.7</v>
+      </c>
+      <c r="J30">
+        <v>1.07</v>
+      </c>
+      <c r="K30">
+        <v>8.25</v>
+      </c>
+      <c r="L30">
+        <v>1.45</v>
+      </c>
+      <c r="M30">
+        <v>2.65</v>
+      </c>
+      <c r="N30">
+        <v>2.2</v>
+      </c>
+      <c r="O30">
+        <v>1.61</v>
+      </c>
+      <c r="P30">
+        <v>1.5</v>
+      </c>
+      <c r="Q30">
+        <v>2.5</v>
+      </c>
+      <c r="R30">
+        <v>2.38</v>
+      </c>
+      <c r="S30">
+        <v>1.53</v>
+      </c>
+      <c r="T30">
+        <v>1.19</v>
+      </c>
+      <c r="U30">
+        <v>1.28</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1.57</v>
+      </c>
+      <c r="Y30">
+        <v>1.56</v>
+      </c>
+      <c r="Z30">
+        <v>1.24</v>
+      </c>
+      <c r="AA30">
+        <v>2.8</v>
+      </c>
+      <c r="AB30">
+        <v>1.45</v>
+      </c>
+      <c r="AC30">
+        <v>8</v>
+      </c>
+      <c r="AD30">
+        <v>3.5</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>1.29</v>
+      </c>
+      <c r="AG30">
+        <v>1.56</v>
+      </c>
+      <c r="AH30">
+        <v>1.94</v>
+      </c>
+      <c r="AI30">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31">
+        <v>2.45</v>
+      </c>
+      <c r="H31">
+        <v>2.75</v>
+      </c>
+      <c r="I31">
+        <v>2.9</v>
+      </c>
+      <c r="J31">
+        <v>1.11</v>
+      </c>
+      <c r="K31">
+        <v>6.28</v>
+      </c>
+      <c r="L31">
+        <v>1.53</v>
+      </c>
+      <c r="M31">
+        <v>2.3</v>
+      </c>
+      <c r="N31">
+        <v>2.6</v>
+      </c>
+      <c r="O31">
+        <v>1.42</v>
+      </c>
+      <c r="P31">
+        <v>1.62</v>
+      </c>
+      <c r="Q31">
+        <v>2.2</v>
+      </c>
+      <c r="R31">
+        <v>2.1</v>
+      </c>
+      <c r="S31">
+        <v>1.67</v>
+      </c>
+      <c r="T31">
+        <v>1.4</v>
+      </c>
+      <c r="U31">
+        <v>1.38</v>
+      </c>
+      <c r="V31">
+        <v>1.46</v>
+      </c>
+      <c r="W31">
+        <v>1.27</v>
+      </c>
+      <c r="X31">
+        <v>0.73</v>
+      </c>
+      <c r="Y31">
+        <v>1.54</v>
+      </c>
+      <c r="Z31">
+        <v>1.36</v>
+      </c>
+      <c r="AA31">
+        <v>2.9</v>
+      </c>
+      <c r="AB31">
+        <v>2.3</v>
+      </c>
+      <c r="AC31">
+        <v>7</v>
+      </c>
+      <c r="AD31">
+        <v>1.9</v>
+      </c>
+      <c r="AE31">
+        <v>1.27</v>
+      </c>
+      <c r="AF31">
+        <v>1.5</v>
+      </c>
+      <c r="AG31">
+        <v>1.88</v>
+      </c>
+      <c r="AH31">
+        <v>2.5</v>
+      </c>
+      <c r="AI31">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32">
+        <v>1.83</v>
+      </c>
+      <c r="H32">
+        <v>3.3</v>
+      </c>
+      <c r="I32">
+        <v>3.75</v>
+      </c>
+      <c r="J32">
+        <v>1.05</v>
+      </c>
+      <c r="K32">
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <v>1.28</v>
+      </c>
+      <c r="M32">
+        <v>3.5</v>
+      </c>
+      <c r="N32">
+        <v>1.75</v>
+      </c>
+      <c r="O32">
+        <v>1.87</v>
+      </c>
+      <c r="P32">
+        <v>1.36</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>1.75</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>1.2</v>
+      </c>
+      <c r="U32">
+        <v>1.22</v>
+      </c>
+      <c r="V32">
+        <v>1.85</v>
+      </c>
+      <c r="W32">
+        <v>1.67</v>
+      </c>
+      <c r="X32">
+        <v>1.38</v>
+      </c>
+      <c r="Y32">
+        <v>1.49</v>
+      </c>
+      <c r="Z32">
+        <v>1.75</v>
+      </c>
+      <c r="AA32">
+        <v>3.24</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33">
+        <v>1.88</v>
+      </c>
+      <c r="H33">
+        <v>3.2</v>
+      </c>
+      <c r="I33">
+        <v>3.9</v>
+      </c>
+      <c r="J33">
+        <v>1.02</v>
+      </c>
+      <c r="K33">
+        <v>9</v>
+      </c>
+      <c r="L33">
+        <v>1.28</v>
+      </c>
+      <c r="M33">
+        <v>3.2</v>
+      </c>
+      <c r="N33">
+        <v>1.85</v>
+      </c>
+      <c r="O33">
+        <v>1.85</v>
+      </c>
+      <c r="P33">
+        <v>1.38</v>
+      </c>
+      <c r="Q33">
+        <v>2.81</v>
+      </c>
+      <c r="R33">
+        <v>1.82</v>
+      </c>
+      <c r="S33">
+        <v>1.84</v>
+      </c>
+      <c r="T33">
+        <v>1.17</v>
+      </c>
+      <c r="U33">
+        <v>1.24</v>
+      </c>
+      <c r="V33">
+        <v>1.98</v>
+      </c>
+      <c r="W33">
+        <v>2</v>
+      </c>
+      <c r="X33">
+        <v>0.38</v>
+      </c>
+      <c r="Y33">
+        <v>2.4</v>
+      </c>
+      <c r="Z33">
+        <v>1.55</v>
+      </c>
+      <c r="AA33">
+        <v>3.95</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34">
+        <v>7.6</v>
+      </c>
+      <c r="H34">
+        <v>4.6</v>
+      </c>
+      <c r="I34">
+        <v>1.43</v>
+      </c>
+      <c r="J34">
+        <v>1.02</v>
+      </c>
+      <c r="K34">
+        <v>14</v>
+      </c>
+      <c r="L34">
+        <v>1.17</v>
+      </c>
+      <c r="M34">
+        <v>4.5</v>
+      </c>
+      <c r="N34">
+        <v>1.78</v>
+      </c>
+      <c r="O34">
+        <v>1.97</v>
+      </c>
+      <c r="P34">
+        <v>1.29</v>
+      </c>
+      <c r="Q34">
+        <v>3.25</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>1.72</v>
+      </c>
+      <c r="T34">
+        <v>2.5</v>
+      </c>
+      <c r="U34">
+        <v>1.15</v>
+      </c>
+      <c r="V34">
+        <v>1.07</v>
+      </c>
+      <c r="W34">
+        <v>0.8</v>
+      </c>
+      <c r="X34">
+        <v>1.1</v>
+      </c>
+      <c r="Y34">
+        <v>1.28</v>
+      </c>
+      <c r="Z34">
+        <v>1.25</v>
+      </c>
+      <c r="AA34">
+        <v>2.53</v>
+      </c>
+      <c r="AB34">
+        <v>6</v>
+      </c>
+      <c r="AC34">
+        <v>11</v>
+      </c>
+      <c r="AD34">
+        <v>1.17</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>1.43</v>
+      </c>
+      <c r="AG34">
+        <v>1.85</v>
+      </c>
+      <c r="AH34">
+        <v>2.37</v>
+      </c>
+      <c r="AI34">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35">
+        <v>2.45</v>
+      </c>
+      <c r="H35">
+        <v>3.3</v>
+      </c>
+      <c r="I35">
+        <v>2.45</v>
+      </c>
+      <c r="J35">
+        <v>1.02</v>
+      </c>
+      <c r="K35">
+        <v>17</v>
+      </c>
+      <c r="L35">
+        <v>1.18</v>
+      </c>
+      <c r="M35">
+        <v>4.75</v>
+      </c>
+      <c r="N35">
+        <v>1.57</v>
+      </c>
+      <c r="O35">
+        <v>2.25</v>
+      </c>
+      <c r="P35">
+        <v>1.29</v>
+      </c>
+      <c r="Q35">
+        <v>3.5</v>
+      </c>
+      <c r="R35">
+        <v>1.5</v>
+      </c>
+      <c r="S35">
+        <v>2.5</v>
+      </c>
+      <c r="T35">
+        <v>1.47</v>
+      </c>
+      <c r="U35">
+        <v>1.27</v>
+      </c>
+      <c r="V35">
+        <v>1.51</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>2</v>
+      </c>
+      <c r="AC35">
+        <v>8</v>
+      </c>
+      <c r="AD35">
+        <v>2</v>
+      </c>
+      <c r="AE35">
+        <v>1.2</v>
+      </c>
+      <c r="AF35">
+        <v>1.4</v>
+      </c>
+      <c r="AG35">
+        <v>1.72</v>
+      </c>
+      <c r="AH35">
+        <v>2.15</v>
+      </c>
+      <c r="AI35">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36">
+        <v>4.5</v>
+      </c>
+      <c r="H36">
+        <v>3.6</v>
+      </c>
+      <c r="I36">
+        <v>1.62</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1.95</v>
+      </c>
+      <c r="O36">
+        <v>1.76</v>
+      </c>
+      <c r="P36">
+        <v>1.4</v>
+      </c>
+      <c r="Q36">
+        <v>2.75</v>
+      </c>
+      <c r="R36">
+        <v>2.1</v>
+      </c>
+      <c r="S36">
+        <v>1.67</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0.83</v>
+      </c>
+      <c r="X36">
+        <v>0.86</v>
+      </c>
+      <c r="Y36">
+        <v>1.2</v>
+      </c>
+      <c r="Z36">
+        <v>1.44</v>
+      </c>
+      <c r="AA36">
+        <v>2.64</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-07-07_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-07_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -148,36 +148,36 @@
     <t>Iceland Úrvalsdeild</t>
   </si>
   <si>
+    <t>Peru Primera División</t>
+  </si>
+  <si>
     <t>Venezuela Primera División</t>
   </si>
   <si>
-    <t>Peru Primera División</t>
-  </si>
-  <si>
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
+    <t>Chile Primera División</t>
+  </si>
+  <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
-    <t>Chile Primera División</t>
-  </si>
-  <si>
-    <t>Brazil Serie B</t>
-  </si>
-  <si>
     <t>Uruguay Primera División</t>
   </si>
   <si>
     <t>Bolivia LFPB</t>
   </si>
   <si>
+    <t>Chile Primera B</t>
+  </si>
+  <si>
     <t>USA USL Championship</t>
   </si>
   <si>
-    <t>Chile Primera B</t>
-  </si>
-  <si>
     <t>Mexico Liga MX</t>
   </si>
   <si>
@@ -244,21 +244,21 @@
     <t>Gangwon</t>
   </si>
   <si>
+    <t>Meizhou Hakka</t>
+  </si>
+  <si>
+    <t>Tianjin Teda</t>
+  </si>
+  <si>
+    <t>Henan Jianye</t>
+  </si>
+  <si>
+    <t>Qingdao Jonoon</t>
+  </si>
+  <si>
     <t>Hangzhou</t>
   </si>
   <si>
-    <t>Henan Jianye</t>
-  </si>
-  <si>
-    <t>Tianjin Teda</t>
-  </si>
-  <si>
-    <t>Meizhou Hakka</t>
-  </si>
-  <si>
-    <t>Qingdao Jonoon</t>
-  </si>
-  <si>
     <t>Paide</t>
   </si>
   <si>
@@ -277,6 +277,9 @@
     <t>Drogheda United</t>
   </si>
   <si>
+    <t>Bohemians</t>
+  </si>
+  <si>
     <t>Derry City</t>
   </si>
   <si>
@@ -286,30 +289,27 @@
     <t>UCD</t>
   </si>
   <si>
-    <t>Bohemians</t>
-  </si>
-  <si>
     <t>Breidablik</t>
   </si>
   <si>
+    <t>Melgar</t>
+  </si>
+  <si>
     <t>Carabobo</t>
   </si>
   <si>
-    <t>Melgar</t>
-  </si>
-  <si>
     <t>Resistencia</t>
   </si>
   <si>
+    <t>Audax Italiano</t>
+  </si>
+  <si>
+    <t>Novorizontino</t>
+  </si>
+  <si>
     <t>Gimnasia La Plata</t>
   </si>
   <si>
-    <t>Audax Italiano</t>
-  </si>
-  <si>
-    <t>Novorizontino</t>
-  </si>
-  <si>
     <t>La Luz</t>
   </si>
   <si>
@@ -322,15 +322,15 @@
     <t>Ceará</t>
   </si>
   <si>
+    <t>Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Memphis 901</t>
+  </si>
+  <si>
     <t>Central Córdoba SdE</t>
   </si>
   <si>
-    <t>Memphis 901</t>
-  </si>
-  <si>
-    <t>Deportes Iquique</t>
-  </si>
-  <si>
     <t>Academia Cantolao</t>
   </si>
   <si>
@@ -349,21 +349,21 @@
     <t>Gwangju</t>
   </si>
   <si>
+    <t>Chengdu Better City FC</t>
+  </si>
+  <si>
+    <t>Nantong Zhiyun</t>
+  </si>
+  <si>
+    <t>Shandong Luneng</t>
+  </si>
+  <si>
+    <t>Shijiazhuang Ever Bright</t>
+  </si>
+  <si>
     <t>Shanghai Shenhua</t>
   </si>
   <si>
-    <t>Shandong Luneng</t>
-  </si>
-  <si>
-    <t>Nantong Zhiyun</t>
-  </si>
-  <si>
-    <t>Chengdu Better City FC</t>
-  </si>
-  <si>
-    <t>Shijiazhuang Ever Bright</t>
-  </si>
-  <si>
     <t>Tallinna FC Flora</t>
   </si>
   <si>
@@ -382,6 +382,9 @@
     <t>Shamrock Rovers</t>
   </si>
   <si>
+    <t>Dundalk</t>
+  </si>
+  <si>
     <t>Sligo Rovers</t>
   </si>
   <si>
@@ -391,30 +394,27 @@
     <t>Shelbourne</t>
   </si>
   <si>
-    <t>Dundalk</t>
-  </si>
-  <si>
     <t>Fylkir</t>
   </si>
   <si>
+    <t>Atlético Grau</t>
+  </si>
+  <si>
     <t>UCV</t>
   </si>
   <si>
-    <t>Atlético Grau</t>
-  </si>
-  <si>
     <t>General Caballero JLM</t>
   </si>
   <si>
+    <t>Palestino</t>
+  </si>
+  <si>
+    <t>Atlético GO</t>
+  </si>
+  <si>
     <t>Independiente</t>
   </si>
   <si>
-    <t>Palestino</t>
-  </si>
-  <si>
-    <t>Atlético GO</t>
-  </si>
-  <si>
     <t>Wanderers</t>
   </si>
   <si>
@@ -427,13 +427,13 @@
     <t>Botafogo SP</t>
   </si>
   <si>
+    <t>San Marcos</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
     <t>Newell's Old Boys</t>
-  </si>
-  <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
-    <t>San Marcos</t>
   </si>
   <si>
     <t>Universitario</t>
@@ -937,13 +937,13 @@
         <v>108</v>
       </c>
       <c r="G2">
-        <v>4.78</v>
+        <v>3.4</v>
       </c>
       <c r="H2">
-        <v>2.18</v>
+        <v>3.6</v>
       </c>
       <c r="I2">
-        <v>2.27</v>
+        <v>1.98</v>
       </c>
       <c r="J2">
         <v>1.04</v>
@@ -958,10 +958,10 @@
         <v>3.5</v>
       </c>
       <c r="N2">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="O2">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P2">
         <v>1.4</v>
@@ -985,10 +985,10 @@
         <v>1.27</v>
       </c>
       <c r="W2">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="X2">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="Y2">
         <v>1.54</v>
@@ -1044,13 +1044,13 @@
         <v>109</v>
       </c>
       <c r="G3">
-        <v>2.88</v>
+        <v>2.14</v>
       </c>
       <c r="H3">
-        <v>2.08</v>
+        <v>3.6</v>
       </c>
       <c r="I3">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>1.04</v>
@@ -1065,10 +1065,10 @@
         <v>3.5</v>
       </c>
       <c r="N3">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="P3">
         <v>1.36</v>
@@ -1092,10 +1092,10 @@
         <v>1.68</v>
       </c>
       <c r="W3">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="X3">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="Y3">
         <v>1.71</v>
@@ -1151,13 +1151,13 @@
         <v>110</v>
       </c>
       <c r="G4">
-        <v>3.89</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>1.96</v>
+        <v>3.3</v>
       </c>
       <c r="I4">
-        <v>2.93</v>
+        <v>2.31</v>
       </c>
       <c r="J4">
         <v>1.07</v>
@@ -1172,10 +1172,10 @@
         <v>2.75</v>
       </c>
       <c r="N4">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="O4">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P4">
         <v>1.5</v>
@@ -1199,10 +1199,10 @@
         <v>1.4</v>
       </c>
       <c r="W4">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="X4">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y4">
         <v>1.21</v>
@@ -1258,91 +1258,91 @@
         <v>111</v>
       </c>
       <c r="G5">
-        <v>1.78</v>
+        <v>4.2</v>
       </c>
       <c r="H5">
-        <v>4.19</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>3.26</v>
+        <v>1.59</v>
       </c>
       <c r="J5">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="L5">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="M5">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N5">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="O5">
+        <v>1.86</v>
+      </c>
+      <c r="P5">
+        <v>1.36</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.75</v>
+      </c>
+      <c r="T5">
+        <v>2.45</v>
+      </c>
+      <c r="U5">
+        <v>1.18</v>
+      </c>
+      <c r="V5">
+        <v>1.08</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
         <v>1.71</v>
       </c>
-      <c r="P5">
-        <v>1.44</v>
-      </c>
-      <c r="Q5">
-        <v>2.63</v>
-      </c>
-      <c r="R5">
-        <v>1.8</v>
-      </c>
-      <c r="S5">
-        <v>1.95</v>
-      </c>
-      <c r="T5">
-        <v>1.32</v>
-      </c>
-      <c r="U5">
-        <v>1.35</v>
-      </c>
-      <c r="V5">
-        <v>1.63</v>
-      </c>
-      <c r="W5">
-        <v>1.5</v>
-      </c>
-      <c r="X5">
-        <v>2.17</v>
-      </c>
       <c r="Y5">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="Z5">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AA5">
-        <v>2.78</v>
+        <v>2.59</v>
       </c>
       <c r="AB5">
-        <v>1.83</v>
+        <v>3.75</v>
       </c>
       <c r="AC5">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AD5">
-        <v>2.3</v>
+        <v>1.36</v>
       </c>
       <c r="AE5">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AF5">
         <v>1.63</v>
       </c>
       <c r="AG5">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AH5">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AI5">
-        <v>4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1365,91 +1365,91 @@
         <v>112</v>
       </c>
       <c r="G6">
-        <v>5.12</v>
+        <v>1.57</v>
       </c>
       <c r="H6">
-        <v>3.73</v>
+        <v>3.4</v>
       </c>
       <c r="I6">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="J6">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K6">
-        <v>9.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="L6">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="M6">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="N6">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="O6">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="P6">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q6">
+        <v>2.63</v>
+      </c>
+      <c r="R6">
+        <v>2.05</v>
+      </c>
+      <c r="S6">
+        <v>1.7</v>
+      </c>
+      <c r="T6">
+        <v>1.12</v>
+      </c>
+      <c r="U6">
+        <v>1.2</v>
+      </c>
+      <c r="V6">
+        <v>2.15</v>
+      </c>
+      <c r="W6">
+        <v>1.75</v>
+      </c>
+      <c r="X6">
+        <v>0.38</v>
+      </c>
+      <c r="Y6">
+        <v>1.25</v>
+      </c>
+      <c r="Z6">
+        <v>1.09</v>
+      </c>
+      <c r="AA6">
+        <v>2.34</v>
+      </c>
+      <c r="AB6">
+        <v>1.53</v>
+      </c>
+      <c r="AC6">
+        <v>8</v>
+      </c>
+      <c r="AD6">
         <v>3</v>
       </c>
-      <c r="R6">
-        <v>1.95</v>
-      </c>
-      <c r="S6">
-        <v>1.8</v>
-      </c>
-      <c r="T6">
-        <v>2.35</v>
-      </c>
-      <c r="U6">
-        <v>1.18</v>
-      </c>
-      <c r="V6">
-        <v>1.1</v>
-      </c>
-      <c r="W6">
-        <v>1.43</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1.14</v>
-      </c>
-      <c r="Z6">
-        <v>1.78</v>
-      </c>
-      <c r="AA6">
-        <v>2.92</v>
-      </c>
-      <c r="AB6">
-        <v>3.6</v>
-      </c>
-      <c r="AC6">
-        <v>8.5</v>
-      </c>
-      <c r="AD6">
-        <v>1.4</v>
-      </c>
       <c r="AE6">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AF6">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AG6">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AH6">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AI6">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1472,91 +1472,91 @@
         <v>113</v>
       </c>
       <c r="G7">
-        <v>1.35</v>
+        <v>5.12</v>
       </c>
       <c r="H7">
-        <v>5.03</v>
+        <v>3.73</v>
       </c>
       <c r="I7">
-        <v>5.78</v>
+        <v>1.6</v>
       </c>
       <c r="J7">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K7">
-        <v>7.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L7">
+        <v>1.28</v>
+      </c>
+      <c r="M7">
+        <v>3.6</v>
+      </c>
+      <c r="N7">
+        <v>1.88</v>
+      </c>
+      <c r="O7">
+        <v>1.84</v>
+      </c>
+      <c r="P7">
+        <v>1.36</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
+        <v>1.8</v>
+      </c>
+      <c r="T7">
+        <v>2.35</v>
+      </c>
+      <c r="U7">
+        <v>1.18</v>
+      </c>
+      <c r="V7">
+        <v>1.1</v>
+      </c>
+      <c r="W7">
+        <v>1.25</v>
+      </c>
+      <c r="X7">
+        <v>1.22</v>
+      </c>
+      <c r="Y7">
+        <v>1.14</v>
+      </c>
+      <c r="Z7">
+        <v>1.78</v>
+      </c>
+      <c r="AA7">
+        <v>2.92</v>
+      </c>
+      <c r="AB7">
+        <v>3.6</v>
+      </c>
+      <c r="AC7">
+        <v>8.5</v>
+      </c>
+      <c r="AD7">
         <v>1.4</v>
       </c>
-      <c r="M7">
-        <v>2.88</v>
-      </c>
-      <c r="N7">
-        <v>2.1</v>
-      </c>
-      <c r="O7">
-        <v>1.7</v>
-      </c>
-      <c r="P7">
-        <v>1.44</v>
-      </c>
-      <c r="Q7">
-        <v>2.63</v>
-      </c>
-      <c r="R7">
-        <v>2.05</v>
-      </c>
-      <c r="S7">
-        <v>1.7</v>
-      </c>
-      <c r="T7">
-        <v>1.12</v>
-      </c>
-      <c r="U7">
-        <v>1.2</v>
-      </c>
-      <c r="V7">
-        <v>2.15</v>
-      </c>
-      <c r="W7">
-        <v>1.86</v>
-      </c>
-      <c r="X7">
-        <v>0.29</v>
-      </c>
-      <c r="Y7">
-        <v>1.25</v>
-      </c>
-      <c r="Z7">
-        <v>1.09</v>
-      </c>
-      <c r="AA7">
-        <v>2.34</v>
-      </c>
-      <c r="AB7">
-        <v>1.53</v>
-      </c>
-      <c r="AC7">
-        <v>8</v>
-      </c>
-      <c r="AD7">
-        <v>3</v>
-      </c>
       <c r="AE7">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AF7">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AG7">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AH7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AI7">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1579,91 +1579,91 @@
         <v>114</v>
       </c>
       <c r="G8">
-        <v>4.59</v>
+        <v>2.24</v>
       </c>
       <c r="H8">
-        <v>2.99</v>
+        <v>3.36</v>
       </c>
       <c r="I8">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="J8">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K8">
-        <v>9.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L8">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>3.39</v>
       </c>
       <c r="N8">
         <v>1.89</v>
       </c>
       <c r="O8">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="P8">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S8">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="U8">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="V8">
-        <v>1.08</v>
+        <v>1.55</v>
       </c>
       <c r="W8">
-        <v>0.67</v>
+        <v>1.14</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="Y8">
-        <v>1.22</v>
+        <v>1.51</v>
       </c>
       <c r="Z8">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="AA8">
-        <v>2.59</v>
+        <v>2.66</v>
       </c>
       <c r="AB8">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="AC8">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD8">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="AE8">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AF8">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AG8">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AH8">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AI8">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1686,82 +1686,82 @@
         <v>115</v>
       </c>
       <c r="G9">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="H9">
-        <v>3.36</v>
+        <v>3.2</v>
       </c>
       <c r="I9">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="J9">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K9">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="L9">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M9">
-        <v>3.39</v>
+        <v>3.1</v>
       </c>
       <c r="N9">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
       <c r="O9">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="P9">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q9">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R9">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T9">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="U9">
         <v>1.35</v>
       </c>
       <c r="V9">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="W9">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="X9">
-        <v>1.33</v>
+        <v>2.29</v>
       </c>
       <c r="Y9">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="Z9">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AA9">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="AB9">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AC9">
         <v>7.5</v>
       </c>
       <c r="AD9">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AE9">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AF9">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AG9">
         <v>2.1</v>
@@ -1793,13 +1793,13 @@
         <v>116</v>
       </c>
       <c r="G10">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I10">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="J10">
         <v>1.01</v>
@@ -1814,10 +1814,10 @@
         <v>3.65</v>
       </c>
       <c r="N10">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O10">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="P10">
         <v>1.34</v>
@@ -1841,10 +1841,10 @@
         <v>1.17</v>
       </c>
       <c r="W10">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="X10">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Y10">
         <v>1.64</v>
@@ -1900,13 +1900,13 @@
         <v>117</v>
       </c>
       <c r="G11">
-        <v>2.09</v>
+        <v>1.93</v>
       </c>
       <c r="H11">
         <v>3.4</v>
       </c>
       <c r="I11">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J11">
         <v>1.01</v>
@@ -1921,10 +1921,10 @@
         <v>3.4</v>
       </c>
       <c r="N11">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="P11">
         <v>1.44</v>
@@ -1948,7 +1948,7 @@
         <v>1.75</v>
       </c>
       <c r="W11">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>118</v>
       </c>
       <c r="G12">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="H12">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I12">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J12">
         <v>1.03</v>
@@ -2028,10 +2028,10 @@
         <v>4.2</v>
       </c>
       <c r="N12">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="O12">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P12">
         <v>1.33</v>
@@ -2055,10 +2055,10 @@
         <v>1.83</v>
       </c>
       <c r="W12">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="X12">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Y12">
         <v>1.77</v>
@@ -2114,13 +2114,13 @@
         <v>119</v>
       </c>
       <c r="G13">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="H13">
         <v>3.3</v>
       </c>
       <c r="I13">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="J13">
         <v>1.06</v>
@@ -2135,10 +2135,10 @@
         <v>3.75</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="O13">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="P13">
         <v>1.4</v>
@@ -2162,10 +2162,10 @@
         <v>1.32</v>
       </c>
       <c r="W13">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="X13">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="Y13">
         <v>1.61</v>
@@ -2221,13 +2221,13 @@
         <v>120</v>
       </c>
       <c r="G14">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H14">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="J14">
         <v>1.06</v>
@@ -2242,10 +2242,10 @@
         <v>2.75</v>
       </c>
       <c r="N14">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="O14">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="P14">
         <v>1.56</v>
@@ -2328,13 +2328,13 @@
         <v>121</v>
       </c>
       <c r="G15">
-        <v>5.98</v>
+        <v>4.2</v>
       </c>
       <c r="H15">
-        <v>2.48</v>
+        <v>3.75</v>
       </c>
       <c r="I15">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         <v>3.64</v>
       </c>
       <c r="N15">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O15">
         <v>2</v>
@@ -2435,91 +2435,91 @@
         <v>122</v>
       </c>
       <c r="G16">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="H16">
-        <v>2.16</v>
+        <v>3.3</v>
       </c>
       <c r="I16">
-        <v>5.29</v>
+        <v>3.2</v>
       </c>
       <c r="J16">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K16">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L16">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M16">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O16">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P16">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q16">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R16">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="U16">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="V16">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="W16">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="Y16">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="Z16">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="AA16">
-        <v>3.26</v>
+        <v>2.88</v>
       </c>
       <c r="AB16">
-        <v>1.34</v>
+        <v>1.82</v>
       </c>
       <c r="AC16">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD16">
-        <v>4.07</v>
+        <v>2.33</v>
       </c>
       <c r="AE16">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AF16">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AG16">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AH16">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="AI16">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2542,82 +2542,82 @@
         <v>123</v>
       </c>
       <c r="G17">
-        <v>1.99</v>
+        <v>1.62</v>
       </c>
       <c r="H17">
-        <v>2.34</v>
+        <v>3.7</v>
       </c>
       <c r="I17">
-        <v>5.62</v>
+        <v>5.75</v>
       </c>
       <c r="J17">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="L17">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N17">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O17">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="P17">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="Q17">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="R17">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S17">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="T17">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="U17">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V17">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="W17">
-        <v>2.08</v>
+        <v>1.58</v>
       </c>
       <c r="X17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="Z17">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="AA17">
-        <v>2.72</v>
+        <v>3.26</v>
       </c>
       <c r="AB17">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AC17">
         <v>9.5</v>
       </c>
       <c r="AD17">
-        <v>4.13</v>
+        <v>4.07</v>
       </c>
       <c r="AE17">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AF17">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AG17">
         <v>1.91</v>
@@ -2626,7 +2626,7 @@
         <v>2.55</v>
       </c>
       <c r="AI17">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2649,91 +2649,91 @@
         <v>124</v>
       </c>
       <c r="G18">
-        <v>7.5</v>
+        <v>1.44</v>
       </c>
       <c r="H18">
-        <v>2.55</v>
+        <v>4.4</v>
       </c>
       <c r="I18">
-        <v>1.71</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L18">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="M18">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="O18">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="P18">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q18">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R18">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="S18">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="T18">
-        <v>2.65</v>
+        <v>1.14</v>
       </c>
       <c r="U18">
         <v>1.22</v>
       </c>
       <c r="V18">
-        <v>1.09</v>
+        <v>2.4</v>
       </c>
       <c r="W18">
-        <v>0.8</v>
+        <v>2.08</v>
       </c>
       <c r="X18">
+        <v>0.5</v>
+      </c>
+      <c r="Y18">
+        <v>1.62</v>
+      </c>
+      <c r="Z18">
         <v>1.1</v>
       </c>
-      <c r="Y18">
-        <v>1.01</v>
-      </c>
-      <c r="Z18">
-        <v>1.13</v>
-      </c>
       <c r="AA18">
-        <v>2.14</v>
+        <v>2.72</v>
       </c>
       <c r="AB18">
-        <v>3.59</v>
+        <v>1.31</v>
       </c>
       <c r="AC18">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD18">
-        <v>1.41</v>
+        <v>4.13</v>
       </c>
       <c r="AE18">
+        <v>1.23</v>
+      </c>
+      <c r="AF18">
         <v>1.44</v>
       </c>
-      <c r="AF18">
-        <v>1.82</v>
-      </c>
       <c r="AG18">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="AH18">
+        <v>2.55</v>
+      </c>
+      <c r="AI18">
         <v>3.3</v>
-      </c>
-      <c r="AI18">
-        <v>4.8</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2756,13 +2756,13 @@
         <v>125</v>
       </c>
       <c r="G19">
-        <v>3.11</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>2.09</v>
+        <v>4.1</v>
       </c>
       <c r="I19">
-        <v>3.25</v>
+        <v>1.45</v>
       </c>
       <c r="J19">
         <v>1.06</v>
@@ -2771,16 +2771,16 @@
         <v>8</v>
       </c>
       <c r="L19">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M19">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N19">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O19">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P19">
         <v>1.4</v>
@@ -2789,58 +2789,58 @@
         <v>2.75</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="T19">
-        <v>1.3</v>
+        <v>2.65</v>
       </c>
       <c r="U19">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V19">
-        <v>1.63</v>
+        <v>1.09</v>
       </c>
       <c r="W19">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="X19">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="Y19">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="Z19">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="AA19">
-        <v>2.88</v>
+        <v>2.14</v>
       </c>
       <c r="AB19">
+        <v>3.59</v>
+      </c>
+      <c r="AC19">
+        <v>8.5</v>
+      </c>
+      <c r="AD19">
+        <v>1.41</v>
+      </c>
+      <c r="AE19">
+        <v>1.44</v>
+      </c>
+      <c r="AF19">
         <v>1.82</v>
       </c>
-      <c r="AC19">
-        <v>8</v>
-      </c>
-      <c r="AD19">
-        <v>2.33</v>
-      </c>
-      <c r="AE19">
-        <v>1.29</v>
-      </c>
-      <c r="AF19">
-        <v>1.56</v>
-      </c>
       <c r="AG19">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AH19">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="AI19">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2863,13 +2863,13 @@
         <v>126</v>
       </c>
       <c r="G20">
-        <v>1.6</v>
+        <v>1.22</v>
       </c>
       <c r="H20">
-        <v>3.02</v>
+        <v>5.75</v>
       </c>
       <c r="I20">
-        <v>6.47</v>
+        <v>9.5</v>
       </c>
       <c r="J20">
         <v>1.01</v>
@@ -2884,10 +2884,10 @@
         <v>5.75</v>
       </c>
       <c r="N20">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="O20">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="P20">
         <v>1.22</v>
@@ -2935,7 +2935,7 @@
         <v>5.1</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AF20">
         <v>1.15</v>
@@ -2961,7 +2961,7 @@
         <v>64</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
         <v>92</v>
@@ -2970,52 +2970,52 @@
         <v>127</v>
       </c>
       <c r="G21">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="H21">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="I21">
-        <v>6.2</v>
+        <v>5.25</v>
       </c>
       <c r="J21">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K21">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L21">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="M21">
-        <v>2.83</v>
+        <v>3.72</v>
       </c>
       <c r="N21">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O21">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="P21">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="Q21">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="R21">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="T21">
         <v>1.13</v>
       </c>
       <c r="U21">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="V21">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="W21">
         <v>2</v>
@@ -3024,37 +3024,37 @@
         <v>0.5</v>
       </c>
       <c r="Y21">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="Z21">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AA21">
-        <v>3.09</v>
+        <v>2.89</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -3068,7 +3068,7 @@
         <v>64</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
         <v>93</v>
@@ -3077,52 +3077,52 @@
         <v>128</v>
       </c>
       <c r="G22">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="H22">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>1.07</v>
+      </c>
+      <c r="K22">
         <v>7</v>
       </c>
-      <c r="J22">
-        <v>1.03</v>
-      </c>
-      <c r="K22">
-        <v>14</v>
-      </c>
       <c r="L22">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="M22">
-        <v>3.72</v>
+        <v>2.5</v>
       </c>
       <c r="N22">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="O22">
-        <v>2.01</v>
+        <v>1.63</v>
       </c>
       <c r="P22">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="S22">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="T22">
         <v>1.13</v>
       </c>
       <c r="U22">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="V22">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="W22">
         <v>2</v>
@@ -3131,37 +3131,37 @@
         <v>0.5</v>
       </c>
       <c r="Y22">
-        <v>1.61</v>
+        <v>1.84</v>
       </c>
       <c r="Z22">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AA22">
-        <v>2.89</v>
+        <v>3.09</v>
       </c>
       <c r="AB22">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AC22">
-        <v>10.5</v>
+        <v>6.6</v>
       </c>
       <c r="AD22">
-        <v>4.25</v>
+        <v>3.31</v>
       </c>
       <c r="AE22">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="AF22">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="AG22">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AH22">
-        <v>2.19</v>
+        <v>2.95</v>
       </c>
       <c r="AI22">
-        <v>2.88</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3184,13 +3184,13 @@
         <v>129</v>
       </c>
       <c r="G23">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H23">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I23">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3205,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="O23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3282,7 +3282,7 @@
         <v>66</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
         <v>95</v>
@@ -3291,91 +3291,91 @@
         <v>130</v>
       </c>
       <c r="G24">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H24">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="I24">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L24">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="M24">
-        <v>2.35</v>
+        <v>4</v>
       </c>
       <c r="N24">
-        <v>2.71</v>
+        <v>1.95</v>
       </c>
       <c r="O24">
-        <v>1.39</v>
+        <v>1.8</v>
       </c>
       <c r="P24">
+        <v>1.36</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
         <v>1.62</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>2.2</v>
       </c>
-      <c r="R24">
-        <v>2.1</v>
-      </c>
-      <c r="S24">
+      <c r="T24">
+        <v>1.37</v>
+      </c>
+      <c r="U24">
+        <v>1.28</v>
+      </c>
+      <c r="V24">
+        <v>1.63</v>
+      </c>
+      <c r="W24">
+        <v>1.57</v>
+      </c>
+      <c r="X24">
+        <v>1.14</v>
+      </c>
+      <c r="Y24">
+        <v>1.86</v>
+      </c>
+      <c r="Z24">
         <v>1.67</v>
       </c>
-      <c r="T24">
-        <v>1.35</v>
-      </c>
-      <c r="U24">
-        <v>1.35</v>
-      </c>
-      <c r="V24">
-        <v>1.44</v>
-      </c>
-      <c r="W24">
-        <v>1.8</v>
-      </c>
-      <c r="X24">
-        <v>0.73</v>
-      </c>
-      <c r="Y24">
-        <v>1.58</v>
-      </c>
-      <c r="Z24">
-        <v>1.11</v>
-      </c>
       <c r="AA24">
-        <v>2.69</v>
+        <v>3.53</v>
       </c>
       <c r="AB24">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AC24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD24">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="AE24">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AF24">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AG24">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="AH24">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="AI24">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3398,91 +3398,91 @@
         <v>131</v>
       </c>
       <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>3.1</v>
+      </c>
+      <c r="I25">
+        <v>3.8</v>
+      </c>
+      <c r="J25">
+        <v>1.08</v>
+      </c>
+      <c r="K25">
+        <v>7.75</v>
+      </c>
+      <c r="L25">
+        <v>1.45</v>
+      </c>
+      <c r="M25">
+        <v>2.65</v>
+      </c>
+      <c r="N25">
+        <v>2.4</v>
+      </c>
+      <c r="O25">
+        <v>1.53</v>
+      </c>
+      <c r="P25">
+        <v>1.5</v>
+      </c>
+      <c r="Q25">
+        <v>2.5</v>
+      </c>
+      <c r="R25">
+        <v>2.2</v>
+      </c>
+      <c r="S25">
+        <v>1.62</v>
+      </c>
+      <c r="T25">
+        <v>1.19</v>
+      </c>
+      <c r="U25">
+        <v>1.29</v>
+      </c>
+      <c r="V25">
+        <v>1.98</v>
+      </c>
+      <c r="W25">
+        <v>1.86</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1.95</v>
+      </c>
+      <c r="Z25">
+        <v>1.34</v>
+      </c>
+      <c r="AA25">
+        <v>3.29</v>
+      </c>
+      <c r="AB25">
+        <v>1.53</v>
+      </c>
+      <c r="AC25">
+        <v>10.5</v>
+      </c>
+      <c r="AD25">
         <v>2.89</v>
       </c>
-      <c r="H25">
-        <v>2.11</v>
-      </c>
-      <c r="I25">
-        <v>3.47</v>
-      </c>
-      <c r="J25">
-        <v>1.03</v>
-      </c>
-      <c r="K25">
-        <v>13</v>
-      </c>
-      <c r="L25">
-        <v>1.22</v>
-      </c>
-      <c r="M25">
-        <v>4</v>
-      </c>
-      <c r="N25">
-        <v>1.81</v>
-      </c>
-      <c r="O25">
-        <v>2.05</v>
-      </c>
-      <c r="P25">
-        <v>1.36</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-      <c r="R25">
-        <v>1.62</v>
-      </c>
-      <c r="S25">
-        <v>2.2</v>
-      </c>
-      <c r="T25">
-        <v>1.37</v>
-      </c>
-      <c r="U25">
-        <v>1.28</v>
-      </c>
-      <c r="V25">
-        <v>1.63</v>
-      </c>
-      <c r="W25">
-        <v>1.57</v>
-      </c>
-      <c r="X25">
-        <v>1.14</v>
-      </c>
-      <c r="Y25">
-        <v>1.86</v>
-      </c>
-      <c r="Z25">
-        <v>1.67</v>
-      </c>
-      <c r="AA25">
-        <v>3.53</v>
-      </c>
-      <c r="AB25">
-        <v>1.85</v>
-      </c>
-      <c r="AC25">
-        <v>8</v>
-      </c>
-      <c r="AD25">
-        <v>2.28</v>
-      </c>
       <c r="AE25">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>1.5</v>
+        <v>1.21</v>
       </c>
       <c r="AG25">
-        <v>1.87</v>
+        <v>1.35</v>
       </c>
       <c r="AH25">
-        <v>2.45</v>
+        <v>1.66</v>
       </c>
       <c r="AI25">
-        <v>3.4</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3496,7 +3496,7 @@
         <v>66</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
         <v>97</v>
@@ -3505,91 +3505,91 @@
         <v>132</v>
       </c>
       <c r="G26">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H26">
-        <v>1.52</v>
+        <v>2.75</v>
       </c>
       <c r="I26">
-        <v>6.35</v>
+        <v>2.7</v>
       </c>
       <c r="J26">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K26">
-        <v>7.75</v>
+        <v>6</v>
       </c>
       <c r="L26">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M26">
-        <v>2.65</v>
+        <v>2.35</v>
       </c>
       <c r="N26">
+        <v>2.71</v>
+      </c>
+      <c r="O26">
+        <v>1.39</v>
+      </c>
+      <c r="P26">
+        <v>1.62</v>
+      </c>
+      <c r="Q26">
+        <v>2.2</v>
+      </c>
+      <c r="R26">
         <v>2.1</v>
       </c>
-      <c r="O26">
-        <v>1.65</v>
-      </c>
-      <c r="P26">
-        <v>1.5</v>
-      </c>
-      <c r="Q26">
-        <v>2.5</v>
-      </c>
-      <c r="R26">
+      <c r="S26">
+        <v>1.67</v>
+      </c>
+      <c r="T26">
+        <v>1.35</v>
+      </c>
+      <c r="U26">
+        <v>1.35</v>
+      </c>
+      <c r="V26">
+        <v>1.44</v>
+      </c>
+      <c r="W26">
+        <v>1.8</v>
+      </c>
+      <c r="X26">
+        <v>0.73</v>
+      </c>
+      <c r="Y26">
+        <v>1.58</v>
+      </c>
+      <c r="Z26">
+        <v>1.11</v>
+      </c>
+      <c r="AA26">
+        <v>2.69</v>
+      </c>
+      <c r="AB26">
+        <v>2.08</v>
+      </c>
+      <c r="AC26">
+        <v>7</v>
+      </c>
+      <c r="AD26">
+        <v>2.08</v>
+      </c>
+      <c r="AE26">
+        <v>1.21</v>
+      </c>
+      <c r="AF26">
+        <v>1.4</v>
+      </c>
+      <c r="AG26">
+        <v>1.71</v>
+      </c>
+      <c r="AH26">
         <v>2.2</v>
       </c>
-      <c r="S26">
-        <v>1.62</v>
-      </c>
-      <c r="T26">
-        <v>1.19</v>
-      </c>
-      <c r="U26">
-        <v>1.29</v>
-      </c>
-      <c r="V26">
-        <v>1.98</v>
-      </c>
-      <c r="W26">
-        <v>1.86</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>1.95</v>
-      </c>
-      <c r="Z26">
-        <v>1.34</v>
-      </c>
-      <c r="AA26">
-        <v>3.29</v>
-      </c>
-      <c r="AB26">
-        <v>1.53</v>
-      </c>
-      <c r="AC26">
-        <v>10.5</v>
-      </c>
-      <c r="AD26">
-        <v>2.89</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>1.35</v>
-      </c>
-      <c r="AH26">
-        <v>1.66</v>
-      </c>
       <c r="AI26">
-        <v>1.99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3612,13 +3612,13 @@
         <v>133</v>
       </c>
       <c r="G27">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="H27">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I27">
-        <v>2.75</v>
+        <v>2.64</v>
       </c>
       <c r="J27">
         <v>1.06</v>
@@ -3633,10 +3633,10 @@
         <v>3.28</v>
       </c>
       <c r="N27">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O27">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="P27">
         <v>1.44</v>
@@ -3719,13 +3719,13 @@
         <v>134</v>
       </c>
       <c r="G28">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H28">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="I28">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="O28">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3826,13 +3826,13 @@
         <v>135</v>
       </c>
       <c r="G29">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H29">
-        <v>3.7</v>
+        <v>3.44</v>
       </c>
       <c r="I29">
-        <v>3.85</v>
+        <v>3.59</v>
       </c>
       <c r="J29">
         <v>1.04</v>
@@ -3847,10 +3847,10 @@
         <v>3.6</v>
       </c>
       <c r="N29">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="O29">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="P29">
         <v>1.38</v>
@@ -3898,24 +3898,24 @@
         <v>3.46</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2">
         <v>45114</v>
@@ -3933,13 +3933,13 @@
         <v>136</v>
       </c>
       <c r="G30">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="H30">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I30">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J30">
         <v>1.07</v>
@@ -3954,10 +3954,10 @@
         <v>2.65</v>
       </c>
       <c r="N30">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O30">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="P30">
         <v>1.5</v>
@@ -4005,7 +4005,7 @@
         <v>3.5</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF30">
         <v>1.29</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2">
         <v>45114</v>
@@ -4031,7 +4031,7 @@
         <v>70</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
         <v>102</v>
@@ -4040,96 +4040,96 @@
         <v>137</v>
       </c>
       <c r="G31">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="H31">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="I31">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="J31">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="K31">
-        <v>6.28</v>
+        <v>9</v>
       </c>
       <c r="L31">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="M31">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N31">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="O31">
-        <v>1.42</v>
+        <v>1.95</v>
       </c>
       <c r="P31">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="Q31">
-        <v>2.2</v>
+        <v>2.81</v>
       </c>
       <c r="R31">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="S31">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="T31">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="U31">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="V31">
-        <v>1.46</v>
+        <v>1.98</v>
       </c>
       <c r="W31">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="X31">
-        <v>0.73</v>
+        <v>0.38</v>
       </c>
       <c r="Y31">
-        <v>1.54</v>
+        <v>2.4</v>
       </c>
       <c r="Z31">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="AA31">
-        <v>2.9</v>
+        <v>3.95</v>
       </c>
       <c r="AB31">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="AH31">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AI31">
-        <v>3.5</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2">
         <v>45114</v>
@@ -4150,10 +4150,10 @@
         <v>1.83</v>
       </c>
       <c r="H32">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="I32">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J32">
         <v>1.05</v>
@@ -4168,10 +4168,10 @@
         <v>3.5</v>
       </c>
       <c r="N32">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="O32">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P32">
         <v>1.36</v>
@@ -4210,33 +4210,33 @@
         <v>3.24</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2">
         <v>45114</v>
@@ -4245,7 +4245,7 @@
         <v>70</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
         <v>104</v>
@@ -4254,96 +4254,96 @@
         <v>139</v>
       </c>
       <c r="G33">
+        <v>2.45</v>
+      </c>
+      <c r="H33">
+        <v>2.75</v>
+      </c>
+      <c r="I33">
+        <v>2.9</v>
+      </c>
+      <c r="J33">
+        <v>1.11</v>
+      </c>
+      <c r="K33">
+        <v>6.28</v>
+      </c>
+      <c r="L33">
+        <v>1.53</v>
+      </c>
+      <c r="M33">
+        <v>2.3</v>
+      </c>
+      <c r="N33">
+        <v>2.6</v>
+      </c>
+      <c r="O33">
+        <v>1.42</v>
+      </c>
+      <c r="P33">
+        <v>1.62</v>
+      </c>
+      <c r="Q33">
+        <v>2.2</v>
+      </c>
+      <c r="R33">
+        <v>2.1</v>
+      </c>
+      <c r="S33">
+        <v>1.67</v>
+      </c>
+      <c r="T33">
+        <v>1.4</v>
+      </c>
+      <c r="U33">
+        <v>1.38</v>
+      </c>
+      <c r="V33">
+        <v>1.46</v>
+      </c>
+      <c r="W33">
+        <v>1.27</v>
+      </c>
+      <c r="X33">
+        <v>0.73</v>
+      </c>
+      <c r="Y33">
+        <v>1.54</v>
+      </c>
+      <c r="Z33">
+        <v>1.36</v>
+      </c>
+      <c r="AA33">
+        <v>2.9</v>
+      </c>
+      <c r="AB33">
+        <v>2.3</v>
+      </c>
+      <c r="AC33">
+        <v>7</v>
+      </c>
+      <c r="AD33">
+        <v>1.9</v>
+      </c>
+      <c r="AE33">
+        <v>1.27</v>
+      </c>
+      <c r="AF33">
+        <v>1.5</v>
+      </c>
+      <c r="AG33">
         <v>1.88</v>
       </c>
-      <c r="H33">
-        <v>3.2</v>
-      </c>
-      <c r="I33">
-        <v>3.9</v>
-      </c>
-      <c r="J33">
-        <v>1.02</v>
-      </c>
-      <c r="K33">
-        <v>9</v>
-      </c>
-      <c r="L33">
-        <v>1.28</v>
-      </c>
-      <c r="M33">
-        <v>3.2</v>
-      </c>
-      <c r="N33">
-        <v>1.85</v>
-      </c>
-      <c r="O33">
-        <v>1.85</v>
-      </c>
-      <c r="P33">
-        <v>1.38</v>
-      </c>
-      <c r="Q33">
-        <v>2.81</v>
-      </c>
-      <c r="R33">
-        <v>1.82</v>
-      </c>
-      <c r="S33">
-        <v>1.84</v>
-      </c>
-      <c r="T33">
-        <v>1.17</v>
-      </c>
-      <c r="U33">
-        <v>1.24</v>
-      </c>
-      <c r="V33">
-        <v>1.98</v>
-      </c>
-      <c r="W33">
-        <v>2</v>
-      </c>
-      <c r="X33">
-        <v>0.38</v>
-      </c>
-      <c r="Y33">
-        <v>2.4</v>
-      </c>
-      <c r="Z33">
-        <v>1.55</v>
-      </c>
-      <c r="AA33">
-        <v>3.95</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
       <c r="AH33">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2">
         <v>45114</v>
@@ -4361,13 +4361,13 @@
         <v>140</v>
       </c>
       <c r="G34">
-        <v>7.6</v>
+        <v>5.25</v>
       </c>
       <c r="H34">
-        <v>4.6</v>
+        <v>4.33</v>
       </c>
       <c r="I34">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="J34">
         <v>1.02</v>
@@ -4382,10 +4382,10 @@
         <v>4.5</v>
       </c>
       <c r="N34">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="O34">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="P34">
         <v>1.29</v>
@@ -4433,7 +4433,7 @@
         <v>1.17</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF34">
         <v>1.43</v>
@@ -4575,31 +4575,31 @@
         <v>142</v>
       </c>
       <c r="G36">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H36">
         <v>3.6</v>
       </c>
       <c r="I36">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="N36">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O36">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="P36">
         <v>1.4</v>
@@ -4614,13 +4614,13 @@
         <v>1.67</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W36">
         <v>0.83</v>
